--- a/data/outputs/能源化工元源数据文件_elsevier/31Journal of Biobased Materials and Bioenergy.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/31Journal of Biobased Materials and Bioenergy.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS84"/>
+  <dimension ref="A1:BU84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -945,6 +955,12 @@
           <t>2-s2.0-84976531797</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1163,6 +1179,12 @@
         <is>
           <t>2-s2.0-84976557818</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1371,6 +1393,12 @@
           <t>2-s2.0-84976560472</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84976528958</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1813,6 +1847,12 @@
           <t>2-s2.0-84976584091</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2036,6 +2076,12 @@
           <t>2-s2.0-84976578993</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2255,6 +2301,12 @@
           <t>2-s2.0-84976598087</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2470,6 +2522,12 @@
           <t>2-s2.0-84976580633</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2685,6 +2743,12 @@
           <t>2-s2.0-84976550234</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2900,6 +2964,12 @@
           <t>2-s2.0-84976525259</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3111,6 +3181,12 @@
           <t>2-s2.0-84976590394</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3322,6 +3398,12 @@
           <t>2-s2.0-84948778287</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3545,6 +3627,12 @@
           <t>2-s2.0-84948771141</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3768,6 +3856,12 @@
           <t>2-s2.0-84948771658</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3983,6 +4077,12 @@
           <t>2-s2.0-84948734975</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4198,6 +4298,12 @@
           <t>2-s2.0-84948754934</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4413,6 +4519,12 @@
           <t>2-s2.0-84948750455</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4628,6 +4740,12 @@
           <t>2-s2.0-84948757991</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4843,6 +4961,12 @@
           <t>2-s2.0-84948743081</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5058,6 +5182,12 @@
           <t>2-s2.0-84948781788</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5273,6 +5403,12 @@
           <t>2-s2.0-84948756787</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5488,6 +5624,12 @@
           <t>2-s2.0-84948783111</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5707,6 +5849,12 @@
           <t>2-s2.0-84946563122</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5918,6 +6066,12 @@
           <t>2-s2.0-84946574504</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6132,6 +6286,12 @@
         <is>
           <t>2-s2.0-84946553364</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -6340,6 +6500,12 @@
           <t>2-s2.0-84946547727</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6563,6 +6729,12 @@
           <t>2-s2.0-84946563840</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6777,6 +6949,12 @@
         <is>
           <t>2-s2.0-84946562619</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -6985,6 +7163,12 @@
           <t>2-s2.0-84946555913</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7192,6 +7376,12 @@
           <t>2-s2.0-84946565054</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7399,6 +7589,12 @@
           <t>2-s2.0-84946552786</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7614,6 +7810,12 @@
           <t>2-s2.0-84946550918</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7828,6 +8030,12 @@
         <is>
           <t>2-s2.0-84946542138</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -8036,6 +8244,12 @@
           <t>2-s2.0-84938392058</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8255,6 +8469,12 @@
           <t>2-s2.0-84938390319</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8474,6 +8694,12 @@
           <t>2-s2.0-84938398417</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8689,6 +8915,12 @@
           <t>2-s2.0-84938317206</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8908,6 +9140,12 @@
           <t>2-s2.0-84938302890</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9131,6 +9369,12 @@
           <t>2-s2.0-84938368237</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9354,6 +9598,12 @@
           <t>2-s2.0-84938379669</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9573,6 +9823,12 @@
           <t>2-s2.0-84938378665</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9788,6 +10044,12 @@
           <t>2-s2.0-84938382430</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10011,6 +10273,12 @@
           <t>2-s2.0-84938412681</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10250,6 +10518,12 @@
           <t>2-s2.0-84935458683</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10485,6 +10759,12 @@
           <t>2-s2.0-84935454717</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10708,6 +10988,12 @@
           <t>2-s2.0-84935501089</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10943,6 +11229,12 @@
           <t>2-s2.0-84935482638</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11170,6 +11462,12 @@
           <t>2-s2.0-84935443724</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11396,6 +11694,12 @@
         <is>
           <t>2-s2.0-84935464331</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -11616,6 +11920,12 @@
           <t>2-s2.0-84935420201</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11847,6 +12157,12 @@
           <t>2-s2.0-84935434514</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12073,6 +12389,12 @@
         <is>
           <t>2-s2.0-84935423987</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -12293,6 +12615,12 @@
           <t>2-s2.0-84935518784</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12520,6 +12848,12 @@
           <t>2-s2.0-84935468113</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12751,6 +13085,12 @@
           <t>2-s2.0-84935523611</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12982,6 +13322,12 @@
           <t>2-s2.0-84983249265</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13205,6 +13551,12 @@
           <t>2-s2.0-84983450068</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13440,6 +13792,12 @@
           <t>2-s2.0-84983399002</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13667,6 +14025,12 @@
           <t>2-s2.0-84983403332</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13902,6 +14266,12 @@
           <t>2-s2.0-84983269076</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14129,6 +14499,12 @@
           <t>2-s2.0-84983354829</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14352,6 +14728,12 @@
           <t>2-s2.0-84983234045</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14579,6 +14961,12 @@
           <t>2-s2.0-84983372023</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14806,6 +15194,12 @@
       <c r="BQ65" t="inlineStr"/>
       <c r="BR65" t="inlineStr"/>
       <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14999,6 +15393,12 @@
           <t>2-s2.0-84929157498</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15214,6 +15614,12 @@
           <t>2-s2.0-84929164721</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15429,6 +15835,12 @@
           <t>2-s2.0-84929151207</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15643,6 +16055,12 @@
         <is>
           <t>2-s2.0-84929165823</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -15851,6 +16269,12 @@
           <t>2-s2.0-84929149877</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16062,6 +16486,12 @@
           <t>2-s2.0-84929172942</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16277,6 +16707,12 @@
           <t>2-s2.0-84929177882</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16491,6 +16927,12 @@
         <is>
           <t>2-s2.0-84929146339</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -16699,6 +17141,12 @@
           <t>2-s2.0-84929164872</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16906,6 +17354,12 @@
           <t>2-s2.0-84929174338</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17113,6 +17567,12 @@
           <t>2-s2.0-84929178405</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17320,6 +17780,12 @@
           <t>2-s2.0-84929170780</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17527,6 +17993,12 @@
           <t>2-s2.0-84929164729</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17730,6 +18202,12 @@
           <t>2-s2.0-84929156429</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17933,6 +18411,12 @@
           <t>2-s2.0-84929175781</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18140,6 +18624,12 @@
           <t>2-s2.0-84929163748</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18347,6 +18837,12 @@
           <t>2-s2.0-84929166060</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18550,6 +19046,12 @@
           <t>2-s2.0-84929177011</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18765,6 +19267,12 @@
           <t>2-s2.0-84929157339</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
